--- a/pdai八股情况.xlsx
+++ b/pdai八股情况.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Redis</t>
   </si>
@@ -24,61 +24,352 @@
     <t>MySQL</t>
   </si>
   <si>
+    <t>JUC</t>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
     <t>Redis 增量复制的流程？</t>
   </si>
   <si>
     <t>能说下myisam 和 innodb的区别吗？</t>
   </si>
   <si>
+    <t>多线程的出现是要解决什么问题的? 本质什么?</t>
+  </si>
+  <si>
+    <t>类加载的生命周期？</t>
+  </si>
+  <si>
+    <t>this() &amp; super()在构造方法中的区别？</t>
+  </si>
+  <si>
     <t>Redis 为什么主从全量复制使用RDB而不使用AOF？</t>
   </si>
   <si>
     <t>什么是B+树？为什么B+树成为主要的SQL数据库的索引实现？</t>
   </si>
   <si>
+    <t>Synchronized由什么样的缺陷? Java Lock是怎么弥补这些缺陷的?</t>
+  </si>
+  <si>
+    <t>类加载器的层次?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a= a + b 与 a += b 的区别</t>
+  </si>
+  <si>
     <t>Redis 为什么还会有从库的从库的设计？</t>
   </si>
   <si>
     <t>那你知道什么是覆盖索引和回表吗？</t>
   </si>
   <si>
+    <t>volatile关键字的作用是什么?</t>
+  </si>
+  <si>
+    <t>说说JVM内存整体的结构？线程私有还是共享的？</t>
+  </si>
+  <si>
+    <t>3*0.1 == 0.3 将会返回什么? true 还是 false?</t>
+  </si>
+  <si>
     <t>Redis 哨兵集群是通过什么方式组建的？</t>
   </si>
   <si>
     <t>什么是MVCC？ 说说MySQL实现MVCC的原理？</t>
   </si>
   <si>
+    <t>volatile是如何实现可见性的?</t>
+  </si>
+  <si>
+    <t>什么是本地方法栈（线程私有）</t>
+  </si>
+  <si>
+    <t>为什么需要泛型？</t>
+  </si>
+  <si>
     <t>Redis 哨兵如何判断主库已经下线了呢？</t>
   </si>
   <si>
     <t>MySQL主从复制？</t>
   </si>
   <si>
+    <t>volatile是如何实现有序性的?</t>
+  </si>
+  <si>
+    <t>什么是虚拟机栈（线程私有）？</t>
+  </si>
+  <si>
+    <t>泛型的上限和下限？</t>
+  </si>
+  <si>
     <t>Redis 哨兵的选举机制是什么样的？</t>
   </si>
   <si>
+    <t>binlog的刷盘时机</t>
+  </si>
+  <si>
+    <t>说下volatile的应用场景?</t>
+  </si>
+  <si>
+    <t>什么是方法区（线程共享）</t>
+  </si>
+  <si>
+    <t>如何理解Java中的泛型是伪泛型？</t>
+  </si>
+  <si>
     <t>说说Redis哈希槽的概念？为什么是16384个？</t>
   </si>
   <si>
+    <t>什么是索引下推</t>
+  </si>
+  <si>
+    <t>JUC框架包含几个部分?</t>
+  </si>
+  <si>
+    <t>堆区内存是怎么细分的？为什么要进行分代</t>
+  </si>
+  <si>
+    <t>泛型中super和extends的区别</t>
+  </si>
+  <si>
     <t>Redis集群会有写操作丢失吗？为什么？</t>
   </si>
   <si>
+    <t>索引优化有哪些</t>
+  </si>
+  <si>
+    <t>JUC并发集合哪些核心的类?</t>
+  </si>
+  <si>
+    <t>New一个对象的全过程是怎样的，在并发过程中会出现什么问题？怎么解决？</t>
+  </si>
+  <si>
+    <t>Java异常类层次结构?</t>
+  </si>
+  <si>
     <t>Redis缓存有哪些问题，如何解决？</t>
   </si>
   <si>
+    <t>索引失效有哪些</t>
+  </si>
+  <si>
+    <t>线程安全的实现方法有哪些?</t>
+  </si>
+  <si>
+    <t>空间分配担保是什么？</t>
+  </si>
+  <si>
+    <t>什么是反射？</t>
+  </si>
+  <si>
     <t>Redis性能问题有哪些，如何分析定位解决?</t>
   </si>
   <si>
+    <t>CAS会有哪些问题?</t>
+  </si>
+  <si>
+    <t>JVM中对象在堆中的生命周期?</t>
+  </si>
+  <si>
+    <t>什么是SPI机制？</t>
+  </si>
+  <si>
     <t>Redis6.0为什么要引入多线程呢？</t>
   </si>
   <si>
+    <t>AtomicInteger底层实现?</t>
+  </si>
+  <si>
+    <t>什么是 TLAB</t>
+  </si>
+  <si>
+    <t>ArrayList和LinkedList的区别</t>
+  </si>
+  <si>
     <t>Redis6.0多线程的实现机制？</t>
   </si>
   <si>
+    <t>说说你对Java原子类的理解?</t>
+  </si>
+  <si>
+    <t>为什么要有 TLAB ?</t>
+  </si>
+  <si>
+    <t>ArrayList在多线程的情况下会有哪些问题</t>
+  </si>
+  <si>
     <t>什么是Redis，为什么用Redis？</t>
   </si>
   <si>
+    <t>说说你对unsafe的理解?</t>
+  </si>
+  <si>
+    <t>如何判断一个对象是否可以回收？</t>
+  </si>
+  <si>
+    <t>为什么HashMap在扩容后不需要重新算Hash位置</t>
+  </si>
+  <si>
     <t>为什么Redis 是单线程的以及为什么这么快？</t>
+  </si>
+  <si>
+    <t>Thread.sleep()和Object.wait()的区别</t>
+  </si>
+  <si>
+    <t>对象有哪些引用类型？</t>
+  </si>
+  <si>
+    <t>HashMap的原理是什么</t>
+  </si>
+  <si>
+    <t>如果在wait()之前执行了notify()会怎样?</t>
+  </si>
+  <si>
+    <t>目前垃圾回收器都在解决一个什么问题</t>
+  </si>
+  <si>
+    <t>HashMap多线程下容易导致死循环问题</t>
+  </si>
+  <si>
+    <t>什么是AQS? 为什么它是核心?</t>
+  </si>
+  <si>
+    <t>CMS收集器怎么完成垃圾回收的，缺点是什么？</t>
+  </si>
+  <si>
+    <t>AQS底层使用了什么样的设计模式?</t>
+  </si>
+  <si>
+    <t>G1收集器是怎么完成垃圾回收的，缺点是什么？</t>
+  </si>
+  <si>
+    <t>ReentrantLock的核心是AQS，那么它怎么来实现的，继承吗?</t>
+  </si>
+  <si>
+    <t>ZGC收集器是怎么完成垃圾回收的，缺点是什么？</t>
+  </si>
+  <si>
+    <t>为什么有了ReentrantLock还需要ReentrantReadWriteLock?</t>
+  </si>
+  <si>
+    <t>Shenandoah收集器是怎么完成垃圾回收的，缺点是什么？</t>
+  </si>
+  <si>
+    <t>ReentrantReadWriteLock底层实现原理?</t>
+  </si>
+  <si>
+    <t>什么情况下会触发Full GC？</t>
+  </si>
+  <si>
+    <t>为什么说Synchronized保证了可见性？</t>
+  </si>
+  <si>
+    <t>为什么HashTable慢? 它的并发度是什么? 那么ConcurrentHashMap并发度是什么?</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap JDK1.7实现的原理是什么?</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap JDK1.8实现的原理是什么?</t>
+  </si>
+  <si>
+    <t>什么是BlockingDeque? 适合用在什么样的场景?</t>
+  </si>
+  <si>
+    <t>BlockingQueue常用的方法?</t>
+  </si>
+  <si>
+    <t>FutureTask用来解决什么问题的? 为什么会出现?</t>
+  </si>
+  <si>
+    <t>FutureTask类结构关系怎么样的?</t>
+  </si>
+  <si>
+    <t>FutureTask的线程安全是由什么保证的?</t>
+  </si>
+  <si>
+    <t>为什么要有线程池?</t>
+  </si>
+  <si>
+    <t>ThreadPoolExecutor的原理?</t>
+  </si>
+  <si>
+    <t>ThreadPoolExecutor有哪些核心的配置参数? 请简要说明</t>
+  </si>
+  <si>
+    <t>ThreadPoolExecutor可以创建哪是哪三种线程池呢?</t>
+  </si>
+  <si>
+    <t>当队列满了并且worker的数量达到maxSize的时候，会怎么样?</t>
+  </si>
+  <si>
+    <t>说说ThreadPoolExecutor有哪些RejectedExecutionHandler策略? 默认是什么策略?</t>
+  </si>
+  <si>
+    <t>线程池中任务是如何提交的?</t>
+  </si>
+  <si>
+    <t>线程池中任务是如何关闭的?</t>
+  </si>
+  <si>
+    <t>在配置线程池的时候需要考虑哪些配置因素?</t>
+  </si>
+  <si>
+    <t>为什么很多公司不允许使用Executors去创建线程池? 那么推荐怎么使用呢?</t>
+  </si>
+  <si>
+    <t>ScheduledThreadPoolExecutor要解决什么样的问题?</t>
+  </si>
+  <si>
+    <t>ScheduledThreadPoolExecutor相比ThreadPoolExecutor有哪些特性?</t>
+  </si>
+  <si>
+    <t>Fork/Join主要用来解决什么样的问题?</t>
+  </si>
+  <si>
+    <t>Fork/Join框架主要包含哪三个模块? 模块之间的关系是怎么样的?</t>
+  </si>
+  <si>
+    <t>整个Fork/Join 框架的执行流程/运行机制是怎么样的?</t>
+  </si>
+  <si>
+    <t>具体阐述Fork/Join的分治思想和work-stealing 实现方式?</t>
+  </si>
+  <si>
+    <t>用ForkJoin方式实现1+2+3+...+100000?</t>
+  </si>
+  <si>
+    <t>什么是CountDownLatch?</t>
+  </si>
+  <si>
+    <t>CountDownLatch底层实现原理?</t>
+  </si>
+  <si>
+    <t>什么是CyclicBarrier?</t>
+  </si>
+  <si>
+    <t>CountDownLatch和CyclicBarrier对比?</t>
+  </si>
+  <si>
+    <t>什么是Semaphore?</t>
+  </si>
+  <si>
+    <t>Semaphore初始化有2个令牌，一个线程调用1次release方法，然后一次性获取3个令牌，会获取到吗?</t>
+  </si>
+  <si>
+    <t>Semaphore初始化有1个令牌，1个线程调用一次acquire方法，然后调用两次release方法，之后另外一个线程调用acquire(2)方法，此线程能够获取到足够的令牌并继续运行吗?</t>
+  </si>
+  <si>
+    <t>什么是ThreadLocal? 用来解决什么问题的?</t>
+  </si>
+  <si>
+    <t>说说你对ThreadLocal的理解</t>
+  </si>
+  <si>
+    <t>为什么ThreadLocal会造成内存泄露? 如何解决</t>
   </si>
 </sst>
 </file>
@@ -702,12 +993,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1060,119 +1357,531 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="139.125" customWidth="1"/>
     <col min="2" max="2" width="93.75" customWidth="1"/>
+    <col min="3" max="3" width="107.875" customWidth="1"/>
+    <col min="4" max="4" width="91.5" customWidth="1"/>
+    <col min="5" max="5" width="77.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/pdai八股情况.xlsx
+++ b/pdai八股情况.xlsx
@@ -1359,8 +1359,8 @@
   <sheetPr/>
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
